--- a/data/trans_dic/P2A_fisi_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P2A_fisi_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>6,58; 10,03</t>
+          <t>6,7; 10,17</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>10,83; 15,39</t>
+          <t>10,72; 15,47</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>6,61; 10,7</t>
+          <t>6,61; 10,62</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>19,61; 25,96</t>
+          <t>19,7; 26,25</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>8,17; 11,4</t>
+          <t>8,1; 11,35</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>11,47; 15,24</t>
+          <t>11,26; 15,21</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>10,55; 15,16</t>
+          <t>10,79; 15,29</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>21,49; 26,3</t>
+          <t>21,55; 26,23</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>7,92; 10,21</t>
+          <t>7,95; 10,28</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>11,65; 14,56</t>
+          <t>11,59; 14,49</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>9,4; 12,54</t>
+          <t>9,29; 12,59</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>21,51; 25,29</t>
+          <t>21,49; 25,33</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,89; 4,76</t>
+          <t>2,96; 4,71</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,41; 6,47</t>
+          <t>4,35; 6,39</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,09; 6,14</t>
+          <t>4,07; 5,98</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>8,68; 11,56</t>
+          <t>8,6; 11,43</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,04; 5,07</t>
+          <t>2,96; 5,01</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>6,01; 8,53</t>
+          <t>5,98; 8,62</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>3,79; 5,79</t>
+          <t>3,73; 5,71</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>8,44; 27,69</t>
+          <t>8,4; 30,62</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>3,21; 4,6</t>
+          <t>3,19; 4,59</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>5,39; 7,03</t>
+          <t>5,38; 7,03</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>4,19; 5,58</t>
+          <t>4,17; 5,53</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>9,18; 22,66</t>
+          <t>9,11; 20,14</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,55; 4,54</t>
+          <t>1,57; 4,77</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,24; 6,34</t>
+          <t>2,23; 6,21</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,16; 5,61</t>
+          <t>2,09; 5,44</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>5,03; 9,8</t>
+          <t>4,89; 9,4</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,79; 6,76</t>
+          <t>2,76; 7,08</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,92; 7,34</t>
+          <t>3,25; 7,75</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,43; 6,06</t>
+          <t>2,48; 5,9</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>3,89; 6,76</t>
+          <t>3,92; 6,88</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,54; 5,08</t>
+          <t>2,5; 4,95</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>3,15; 6,03</t>
+          <t>3,2; 6,29</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>2,71; 5,2</t>
+          <t>2,64; 5,17</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>4,75; 7,34</t>
+          <t>4,83; 7,35</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,27; 5,75</t>
+          <t>4,23; 5,8</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>6,31; 8,38</t>
+          <t>6,44; 8,33</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,75; 6,34</t>
+          <t>4,78; 6,42</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>10,28; 12,56</t>
+          <t>10,2; 12,67</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>5,45; 7,05</t>
+          <t>5,37; 7,07</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>8,02; 10,08</t>
+          <t>8,1; 10,09</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>6,1; 7,91</t>
+          <t>6,08; 7,81</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>11,16; 21,74</t>
+          <t>11,16; 25,96</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>5,05; 6,14</t>
+          <t>5,05; 6,16</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>7,53; 8,9</t>
+          <t>7,55; 8,85</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>5,66; 6,89</t>
+          <t>5,66; 6,81</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>11,19; 18,73</t>
+          <t>11,22; 18,37</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P2A_fisi_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P2A_fisi_R-Estudios-trans_dic.xlsx
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>22,65%</t>
+          <t>22,6%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>23,76%</t>
+          <t>23,53%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>23,32%</t>
+          <t>23,15%</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>19,7; 26,25</t>
+          <t>19,7; 26,37</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>21,55; 26,23</t>
+          <t>21,37; 25,91</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>21,49; 25,33</t>
+          <t>21,24; 25,14</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>10,11%</t>
+          <t>8,74%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>13,23%</t>
+          <t>16,6%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>11,7%</t>
+          <t>12,63%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>8,6; 11,43</t>
+          <t>6,22; 10,31</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>8,4; 30,62</t>
+          <t>7,84; 43,55</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>9,11; 20,14</t>
+          <t>8,09; 26,78</t>
         </is>
       </c>
     </row>
@@ -951,12 +951,12 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>6,82%</t>
+          <t>7,02%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>4,45%</t>
+          <t>4,84%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
@@ -971,12 +971,12 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>5,15%</t>
+          <t>5,18%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>3,55%</t>
+          <t>3,73%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>5,96%</t>
+          <t>6,09%</t>
         </is>
       </c>
     </row>
@@ -1019,12 +1019,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>4,89; 9,4</t>
+          <t>5,01; 9,72</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,76; 7,08</t>
+          <t>3,06; 7,47</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -1039,12 +1039,12 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>3,92; 6,88</t>
+          <t>3,95; 6,9</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,5; 4,95</t>
+          <t>2,67; 5,23</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>4,83; 7,35</t>
+          <t>4,91; 7,57</t>
         </is>
       </c>
     </row>
@@ -1091,12 +1091,12 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>11,46%</t>
+          <t>10,49%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>6,2%</t>
+          <t>6,26%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -1111,12 +1111,12 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>14,03%</t>
+          <t>15,97%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>5,61%</t>
+          <t>5,64%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>12,82%</t>
+          <t>13,31%</t>
         </is>
       </c>
     </row>
@@ -1159,12 +1159,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>10,2; 12,67</t>
+          <t>8,12; 11,92</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>5,37; 7,07</t>
+          <t>5,4; 7,14</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1179,12 +1179,12 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>11,16; 25,96</t>
+          <t>10,58; 35,17</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>5,05; 6,16</t>
+          <t>5,08; 6,19</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>11,22; 18,37</t>
+          <t>10,43; 23,19</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P2A_fisi_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P2A_fisi_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -534,7 +535,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Hogares con personas con limitación, discapacidad física</t>
+          <t>Hogares con personas con limitación por discapacidad física</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>6,7; 10,17</t>
+          <t>6,55; 9,87</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>10,72; 15,47</t>
+          <t>11,0; 15,98</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>6,61; 10,62</t>
+          <t>6,49; 10,59</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>19,7; 26,37</t>
+          <t>19,74; 26,27</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>8,1; 11,35</t>
+          <t>8,09; 11,32</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>11,26; 15,21</t>
+          <t>11,44; 15,11</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>10,79; 15,29</t>
+          <t>10,84; 15,59</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>21,37; 25,91</t>
+          <t>21,21; 25,66</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>7,95; 10,28</t>
+          <t>7,86; 10,14</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>11,59; 14,49</t>
+          <t>11,56; 14,61</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>9,29; 12,59</t>
+          <t>9,48; 12,5</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>21,24; 25,14</t>
+          <t>21,21; 25,21</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,96; 4,71</t>
+          <t>2,88; 4,71</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,35; 6,39</t>
+          <t>4,46; 6,5</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,07; 5,98</t>
+          <t>4,19; 6,25</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>6,22; 10,31</t>
+          <t>6,2; 10,43</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,96; 5,01</t>
+          <t>2,98; 4,97</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>5,98; 8,62</t>
+          <t>6,0; 8,55</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>3,73; 5,71</t>
+          <t>3,8; 5,8</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>7,84; 43,55</t>
+          <t>7,81; 40,2</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>3,19; 4,59</t>
+          <t>3,18; 4,47</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>5,38; 7,03</t>
+          <t>5,4; 6,97</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>4,17; 5,53</t>
+          <t>4,18; 5,6</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>8,09; 26,78</t>
+          <t>8,1; 26,93</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,57; 4,77</t>
+          <t>1,54; 4,68</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,23; 6,21</t>
+          <t>2,3; 6,08</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,09; 5,44</t>
+          <t>2,12; 5,49</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>5,01; 9,72</t>
+          <t>5,06; 9,87</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,06; 7,47</t>
+          <t>3,09; 7,27</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>3,25; 7,75</t>
+          <t>3,35; 8,07</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,48; 5,9</t>
+          <t>2,49; 5,88</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>3,95; 6,9</t>
+          <t>3,94; 6,8</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,67; 5,23</t>
+          <t>2,54; 5,11</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>3,2; 6,29</t>
+          <t>3,17; 6,25</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>2,64; 5,17</t>
+          <t>2,73; 5,07</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>4,91; 7,57</t>
+          <t>4,81; 7,52</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,23; 5,8</t>
+          <t>4,26; 5,83</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>6,44; 8,33</t>
+          <t>6,39; 8,47</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,78; 6,42</t>
+          <t>4,82; 6,36</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>8,12; 11,92</t>
+          <t>8,25; 11,83</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>5,4; 7,14</t>
+          <t>5,42; 7,13</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>8,1; 10,09</t>
+          <t>8,1; 10,18</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>6,08; 7,81</t>
+          <t>6,01; 7,8</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>10,58; 35,17</t>
+          <t>10,62; 31,71</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>5,08; 6,19</t>
+          <t>5,08; 6,25</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>7,55; 8,85</t>
+          <t>7,51; 8,85</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>5,66; 6,81</t>
+          <t>5,62; 6,85</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>10,43; 23,19</t>
+          <t>10,35; 22,89</t>
         </is>
       </c>
     </row>
@@ -1223,4 +1224,1003 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Hogares con personas con limitación por discapacidad física</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Primarios</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>164</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>347</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>208</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>275</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>174</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>511</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>84915</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>126814</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>63457</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>116353</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>126403</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>174949</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>128524</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>177802</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>211317</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>301762</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>191981</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>294155</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>67564; 101808</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>107221; 155793</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>48936; 79865</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>101623; 135300</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>106452; 148929</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>153040; 202078</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>107776; 155041</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>160243; 193838</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>184507; 237953</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>267263; 337761</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>165751; 218566</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>269413; 320293</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundarios</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>213</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>279</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>182</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>492</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>63373</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>104173</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>104308</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>200233</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>62092</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>125647</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>93349</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>371494</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>125465</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>229820</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>197657</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>571727</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>48845; 79706</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>87527; 127640</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>86897; 129845</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>142074; 238856</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>47284; 78884</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>105476; 150353</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>75488; 115378</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>174852; 899709</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>104330; 146647</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>200789; 259555</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>169775; 227773</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>366860; 1219303</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>15324</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>18791</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>19643</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>45405</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>23035</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>22758</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>21811</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>34223</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>38358</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>41549</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>41454</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>79628</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>8485; 25786</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>11075; 29239</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>11597; 30001</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>32716; 63809</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>14734; 34626</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>15379; 37034</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>13669; 32315</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>26034; 44884</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>26091; 52555</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>29781; 58752</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>29915; 55620</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>62852; 98330</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>162</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>226</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>178</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>422</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>296</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>216</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>683</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>362</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>522</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>394</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>1105</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>163611</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>249777</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>187408</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>361991</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>211529</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>323353</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>243684</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>583519</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>375140</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>573131</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>431092</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>945510</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>139518; 191126</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>218668; 289557</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>162824; 214731</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>284731; 408401</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>183046; 240842</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>287923; 361708</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>212349; 275438</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>388086; 1158747</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>338131; 415727</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>523709; 616876</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>388292; 473126</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>735125; 1626636</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>